--- a/CMMI/PP/Administracion de Riesgos/DB de Riesgos/MBAWA_001_BD de Riesgos_001.xlsx
+++ b/CMMI/PP/Administracion de Riesgos/DB de Riesgos/MBAWA_001_BD de Riesgos_001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\el bueno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qarina\Downloads\Plantillas_2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="10380" windowHeight="8070" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -647,9 +647,6 @@
     <t>La zona comercial no es la adecuada para el desarrollo del proyecto.</t>
   </si>
   <si>
-    <t>No se acopla a las tecnologías actuales</t>
-  </si>
-  <si>
     <t>Problemas económicos</t>
   </si>
   <si>
@@ -659,9 +656,6 @@
     <t>No se establece un modelo de gestión de calidad.</t>
   </si>
   <si>
-    <t>La instalación eléctrica no es la adecuada.</t>
-  </si>
-  <si>
     <t>La iluminación no es la adecuada.</t>
   </si>
   <si>
@@ -701,54 +695,27 @@
     <t>Mala evaluación de cambios, restricciones, criterios de revisión y auditorías</t>
   </si>
   <si>
-    <t xml:space="preserve"> o se cuentan con cuentas  de usuario.</t>
-  </si>
-  <si>
     <t>No se manejan estándares de documentación de producto.</t>
   </si>
   <si>
-    <t>El producto no cumple todos les requisitos fin especificados.</t>
-  </si>
-  <si>
-    <t>El área no es la más óptima.</t>
-  </si>
-  <si>
     <t>Los equipos de cómputo no son suficientes para el equipo de proyecto.</t>
   </si>
   <si>
     <t>Falta de informe de auditorías de gestión de configuración</t>
   </si>
   <si>
-    <t>La falta de conocimientos tecnicos especificos</t>
-  </si>
-  <si>
-    <t>Falta de uso de tecnicas de control de proyectos</t>
-  </si>
-  <si>
     <t>Falta de uso de herramientas de control de proyecto</t>
   </si>
   <si>
-    <t>El ciclo de revicion por la por parte de la administracion es mas lento de lo previsto</t>
-  </si>
-  <si>
     <t>Falta de un proceso para cambio de requerimientos</t>
   </si>
   <si>
-    <t>Los planes de proyectos se abandonan bajo presion</t>
-  </si>
-  <si>
-    <t>No capitalisar lecciones aprendidas</t>
-  </si>
-  <si>
     <t>Ausencia de Integración Funcional y Técnica.</t>
   </si>
   <si>
     <t>El ciclo de revisión por parte de la administración es más lento de lo previsto.</t>
   </si>
   <si>
-    <t>Procesos no alineados a la Estrategía o Plan de trabajo.</t>
-  </si>
-  <si>
     <t>Acceso complicado a los recursos de trabajo.</t>
   </si>
   <si>
@@ -761,12 +728,6 @@
     <t>Falta de seguimiento los procesos del proyecto.</t>
   </si>
   <si>
-    <t>No se define oportunamente al Gerente o Lider de Proyecto.</t>
-  </si>
-  <si>
-    <t>Falta de conocimientos técnicos en las heramientas administrativas.</t>
-  </si>
-  <si>
     <t>No se considera la gestión de los riesgos.</t>
   </si>
   <si>
@@ -776,15 +737,9 @@
     <t>No hay sincronización de recursos o actividades.</t>
   </si>
   <si>
-    <t>No se establece un estandar para la definicion de requerimientos</t>
-  </si>
-  <si>
     <t>No se cuentan con los requerimientos necesarios</t>
   </si>
   <si>
-    <t>Inexistencia de requirimientos</t>
-  </si>
-  <si>
     <t>Inserciones de nuevos requerimientos</t>
   </si>
   <si>
@@ -842,24 +797,12 @@
     <t>Acceso complicado a las instalaciones de la compañía.</t>
   </si>
   <si>
-    <t>Problemas climaticos.</t>
-  </si>
-  <si>
-    <t>Incremento de los costos en en los servicios o productos para el proyecto.</t>
-  </si>
-  <si>
     <t>Crisis económica en el país que afecte al proyecto.</t>
   </si>
   <si>
     <t>Desastres naturales (Incendios, inundaciones, terremotos)</t>
   </si>
   <si>
-    <t>Oposición por parte de personas ajenas al proyecto por ejemplo gobierno,sociedad, etc.</t>
-  </si>
-  <si>
-    <t>Servicios externos fallan inesperadamente o no se proporciona el servicio ejemplo Gasolinerias, Luz Eléctrica.</t>
-  </si>
-  <si>
     <t>Problemas sociales dentro de el país.</t>
   </si>
   <si>
@@ -881,9 +824,6 @@
     <t>Contaminación auditiva.</t>
   </si>
   <si>
-    <t>Intalaciones vecinas que puedan afectar las infrastructura de la compañía.</t>
-  </si>
-  <si>
     <t>Problemas entre el equipo de trabajo</t>
   </si>
   <si>
@@ -894,9 +834,6 @@
   </si>
   <si>
     <t>Estrés en el personal</t>
-  </si>
-  <si>
-    <t>Irrenponsabilidad del personal</t>
   </si>
   <si>
     <t>No se retiran los miembros conflictivos del equipo de trabajo</t>
@@ -1012,36 +949,15 @@
     <t xml:space="preserve">Tener pocos stakeholders </t>
   </si>
   <si>
-    <t>Organización y Administracion</t>
-  </si>
-  <si>
     <t>Ambiente de Desarrollo</t>
   </si>
   <si>
-    <t>Las instalaciones electricas no son las adecuadas</t>
-  </si>
-  <si>
     <t>Los equipos no son los adecuados</t>
   </si>
   <si>
-    <t>El area de trabajo no es la adecuada</t>
-  </si>
-  <si>
     <t>Falla en servicio</t>
   </si>
   <si>
-    <t>Implicacion del Usuarios y Contratista</t>
-  </si>
-  <si>
-    <t>Caracteristicas del Producto</t>
-  </si>
-  <si>
-    <t>No se acopla con las tecnologias existentes</t>
-  </si>
-  <si>
-    <t>El desarrollo en un entorno de hardware no familiar o nunca antes probado</t>
-  </si>
-  <si>
     <t>Entorno Externo</t>
   </si>
   <si>
@@ -1609,9 +1525,6 @@
     <t>MMC_081</t>
   </si>
   <si>
-    <t>Establecer politicas de respaldo de información</t>
-  </si>
-  <si>
     <t>MMC_082</t>
   </si>
   <si>
@@ -1621,7 +1534,94 @@
     <t>MMC_083</t>
   </si>
   <si>
-    <t>Seguir un patron de diseño adecuado para el proyecto</t>
+    <t>Establecer políticas de respaldo de información</t>
+  </si>
+  <si>
+    <t>Seguir un patrón de diseño adecuado para el proyecto</t>
+  </si>
+  <si>
+    <t>Implicación del Usuarios y Contratista</t>
+  </si>
+  <si>
+    <t>No se establece un estándar para la definición de requerimientos</t>
+  </si>
+  <si>
+    <t>Inexistencia de requerimientos</t>
+  </si>
+  <si>
+    <t>No se acopla con las tecnologías existentes</t>
+  </si>
+  <si>
+    <t>Problemas climáticos.</t>
+  </si>
+  <si>
+    <t>Incremento de los costos en  los servicios o productos para el proyecto.</t>
+  </si>
+  <si>
+    <t>Oposición por parte de personas ajenas al proyecto por ejemplo gobierno, sociedad, etc.</t>
+  </si>
+  <si>
+    <t>Servicios externos fallan inesperadamente o no se proporciona el servicio ejemplo Gasolineras, Luz Eléctrica.</t>
+  </si>
+  <si>
+    <t>Instalaciones vecinas que puedan afectar las infraestructura de la compañía.</t>
+  </si>
+  <si>
+    <t>Irresponsabilidad del personal</t>
+  </si>
+  <si>
+    <t>La falta de conocimientos técnicos específicos</t>
+  </si>
+  <si>
+    <t>Falta de uso de técnicas de control de proyectos</t>
+  </si>
+  <si>
+    <t>El ciclo de revisión por la por parte de la administración es mas lento de lo previsto</t>
+  </si>
+  <si>
+    <t>Los planes de proyectos se abandonan bajo presión</t>
+  </si>
+  <si>
+    <t>No capitalizar lecciones aprendidas</t>
+  </si>
+  <si>
+    <t>Procesos no alineados a la Estrategia o Plan de trabajo.</t>
+  </si>
+  <si>
+    <t>No se define oportunamente al Gerente o Líder de Proyecto.</t>
+  </si>
+  <si>
+    <t>Falta de conocimientos técnicos en las herramientas administrativas.</t>
+  </si>
+  <si>
+    <t>El área  no es la más óptima.</t>
+  </si>
+  <si>
+    <t>Características del Producto</t>
+  </si>
+  <si>
+    <t>Organización y Administración</t>
+  </si>
+  <si>
+    <t>No aplica con los estandares estaqblecidos</t>
+  </si>
+  <si>
+    <t>El producto no se implementa en el hardware del cliente.</t>
+  </si>
+  <si>
+    <t>Equipos de computo insuficientes.</t>
+  </si>
+  <si>
+    <t>La instalación eléctrica no son las mas adecuadas para el proyecto.</t>
+  </si>
+  <si>
+    <t>Los usuarios no tienen usuario de acceso para los equipos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las instalaciones de trabajo para el equipo no son las adecuadas para el proyecto. </t>
+  </si>
+  <si>
+    <t>El producto no cumple con los requerimientos funcionales.</t>
   </si>
 </sst>
 </file>
@@ -2463,9 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2522,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2574,7 +2572,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B18" s="14">
         <v>42539</v>
@@ -2584,7 +2582,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B19" s="14">
         <v>42539</v>
@@ -2594,7 +2592,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B20" s="14">
         <v>42539</v>
@@ -2604,7 +2602,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B21" s="14">
         <v>42539</v>
@@ -2638,7 +2636,7 @@
     </row>
     <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B25" s="14">
         <v>42539</v>
@@ -2715,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2826,7 +2824,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2837,7 +2835,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,7 +2846,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -2862,7 +2860,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2876,7 +2874,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2887,7 +2885,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2898,7 +2896,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,7 +2907,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,7 +2918,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,7 +2929,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,7 +2940,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,7 +2951,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2964,7 +2962,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,7 +2973,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,7 +2995,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,7 +3006,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,7 +3017,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,7 +3028,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3041,7 +3039,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3049,10 +3047,10 @@
         <v>51</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>232</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3060,10 +3058,10 @@
         <v>52</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>233</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3071,10 +3069,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3082,10 +3080,10 @@
         <v>54</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>235</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3093,10 +3091,10 @@
         <v>55</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3104,10 +3102,10 @@
         <v>56</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>237</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,10 +3113,10 @@
         <v>57</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3126,10 +3124,10 @@
         <v>58</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3137,10 +3135,10 @@
         <v>59</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3148,10 +3146,10 @@
         <v>60</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>241</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3159,10 +3157,10 @@
         <v>61</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3170,10 +3168,10 @@
         <v>62</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3181,10 +3179,10 @@
         <v>63</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3192,10 +3190,10 @@
         <v>64</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3203,10 +3201,10 @@
         <v>65</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3214,10 +3212,10 @@
         <v>66</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>246</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3225,10 +3223,10 @@
         <v>67</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>247</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3236,10 +3234,10 @@
         <v>68</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3247,10 +3245,10 @@
         <v>69</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,10 +3256,10 @@
         <v>70</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3269,10 +3267,10 @@
         <v>71</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>328</v>
+        <v>305</v>
+      </c>
+      <c r="C50" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3280,10 +3278,10 @@
         <v>72</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3291,10 +3289,10 @@
         <v>73</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>330</v>
+        <v>305</v>
+      </c>
+      <c r="C52" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,10 +3300,10 @@
         <v>74</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,10 +3311,10 @@
         <v>75</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3324,7 +3322,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>104</v>
@@ -3335,10 +3333,10 @@
         <v>77</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>229</v>
+        <v>305</v>
+      </c>
+      <c r="C56" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3346,10 +3344,10 @@
         <v>78</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>212</v>
+        <v>305</v>
+      </c>
+      <c r="C57" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,10 +3355,10 @@
         <v>79</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,7 +3366,7 @@
         <v>80</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>206</v>
@@ -3379,10 +3377,10 @@
         <v>81</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3390,10 +3388,10 @@
         <v>82</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,7 +3399,7 @@
         <v>83</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>207</v>
@@ -3412,10 +3410,10 @@
         <v>84</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>226</v>
+        <v>305</v>
+      </c>
+      <c r="C63" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3423,10 +3421,10 @@
         <v>85</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,10 +3432,10 @@
         <v>86</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,10 +3443,10 @@
         <v>87</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3456,10 +3454,10 @@
         <v>88</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3467,10 +3465,10 @@
         <v>89</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3478,10 +3476,10 @@
         <v>90</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3489,10 +3487,10 @@
         <v>91</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,10 +3498,10 @@
         <v>92</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,10 +3509,10 @@
         <v>93</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,10 +3520,10 @@
         <v>94</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,10 +3531,10 @@
         <v>95</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,10 +3542,10 @@
         <v>96</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,10 +3553,10 @@
         <v>97</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,10 +3564,10 @@
         <v>98</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,10 +3575,10 @@
         <v>99</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,10 +3586,10 @@
         <v>100</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3599,10 +3597,10 @@
         <v>101</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3610,10 +3608,10 @@
         <v>102</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,10 +3619,10 @@
         <v>103</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,10 +3630,10 @@
         <v>106</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,10 +3641,10 @@
         <v>107</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3654,10 +3652,10 @@
         <v>108</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3679,7 +3677,7 @@
         <v>105</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>251</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3690,7 +3688,7 @@
         <v>105</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3701,7 +3699,7 @@
         <v>105</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>253</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3712,7 +3710,7 @@
         <v>105</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3723,7 +3721,7 @@
         <v>105</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3734,7 +3732,7 @@
         <v>105</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3745,7 +3743,7 @@
         <v>105</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3756,7 +3754,7 @@
         <v>105</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3767,7 +3765,7 @@
         <v>105</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3778,7 +3776,7 @@
         <v>105</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3789,7 +3787,7 @@
         <v>105</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3800,7 +3798,7 @@
         <v>105</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3811,7 +3809,7 @@
         <v>105</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3822,7 +3820,7 @@
         <v>105</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3833,7 +3831,7 @@
         <v>105</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3844,7 +3842,7 @@
         <v>105</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3852,10 +3850,10 @@
         <v>126</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>334</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3863,10 +3861,10 @@
         <v>127</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>335</v>
+        <v>521</v>
+      </c>
+      <c r="C104" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3874,7 +3872,7 @@
         <v>128</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>194</v>
@@ -3885,7 +3883,7 @@
         <v>129</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>195</v>
@@ -3896,7 +3894,7 @@
         <v>130</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>196</v>
@@ -3907,7 +3905,7 @@
         <v>131</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>197</v>
@@ -3918,7 +3916,7 @@
         <v>132</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>198</v>
@@ -3929,10 +3927,10 @@
         <v>133</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>208</v>
+        <v>521</v>
+      </c>
+      <c r="C110" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -3940,7 +3938,7 @@
         <v>134</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>199</v>
@@ -3951,7 +3949,7 @@
         <v>135</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>200</v>
@@ -3962,10 +3960,10 @@
         <v>136</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3973,10 +3971,10 @@
         <v>137</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3984,10 +3982,10 @@
         <v>138</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>228</v>
+        <v>521</v>
+      </c>
+      <c r="C115" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3995,10 +3993,10 @@
         <v>139</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -4006,10 +4004,10 @@
         <v>140</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4017,10 +4015,10 @@
         <v>141</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4028,10 +4026,10 @@
         <v>142</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4039,10 +4037,10 @@
         <v>143</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4050,10 +4048,10 @@
         <v>144</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -4061,10 +4059,10 @@
         <v>145</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4072,10 +4070,10 @@
         <v>146</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>274</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4083,10 +4081,10 @@
         <v>147</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4094,10 +4092,10 @@
         <v>148</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -4105,10 +4103,10 @@
         <v>149</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>277</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4116,10 +4114,10 @@
         <v>150</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>278</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -4127,10 +4125,10 @@
         <v>151</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -4138,10 +4136,10 @@
         <v>152</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -4149,10 +4147,10 @@
         <v>153</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -4160,10 +4158,10 @@
         <v>154</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -4171,10 +4169,10 @@
         <v>155</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -4182,10 +4180,10 @@
         <v>156</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -4193,10 +4191,10 @@
         <v>157</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -4204,10 +4202,10 @@
         <v>158</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>286</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -4215,10 +4213,10 @@
         <v>159</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -4226,10 +4224,10 @@
         <v>160</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -4237,10 +4235,10 @@
         <v>161</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -4248,10 +4246,10 @@
         <v>162</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -4259,10 +4257,10 @@
         <v>163</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>291</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -4270,10 +4268,10 @@
         <v>164</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -4281,10 +4279,10 @@
         <v>165</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4292,10 +4290,10 @@
         <v>166</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4303,10 +4301,10 @@
         <v>167</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4314,10 +4312,10 @@
         <v>168</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4325,10 +4323,10 @@
         <v>169</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4336,10 +4334,10 @@
         <v>170</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4347,10 +4345,10 @@
         <v>171</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4358,10 +4356,10 @@
         <v>172</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4369,10 +4367,10 @@
         <v>173</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4380,10 +4378,10 @@
         <v>174</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4391,10 +4389,10 @@
         <v>175</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4402,10 +4400,10 @@
         <v>176</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4413,10 +4411,10 @@
         <v>177</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -4424,10 +4422,10 @@
         <v>178</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4438,7 +4436,7 @@
         <v>201</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4449,7 +4447,7 @@
         <v>201</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4460,7 +4458,7 @@
         <v>201</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -4471,7 +4469,7 @@
         <v>201</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4482,7 +4480,7 @@
         <v>201</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4493,7 +4491,7 @@
         <v>201</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4504,7 +4502,7 @@
         <v>201</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4515,7 +4513,7 @@
         <v>201</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4526,7 +4524,7 @@
         <v>202</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -4537,7 +4535,7 @@
         <v>202</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4581,7 +4579,7 @@
         <v>202</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4614,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4684,7 +4682,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="18"/>
@@ -4730,24 +4728,24 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -4755,13 +4753,13 @@
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -4769,871 +4767,871 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C29" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C30" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C31" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C34" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C35" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>446</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B55" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="B57" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B59" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="B61" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="B63" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="B65" s="40" t="s">
-        <v>446</v>
-      </c>
       <c r="C65" s="45" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B66" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="B67" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="B70" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="B72" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="B74" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
